--- a/Data/aearep-1815/candidatepackages.xlsx
+++ b/Data/aearep-1815/candidatepackages.xlsx
@@ -28,15 +28,15 @@
     <t>lambda</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>hbar</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>art</t>
-  </si>
-  <si>
-    <t>median</t>
   </si>
   <si>
     <t>delta</t>
@@ -235,7 +235,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -247,7 +247,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -259,10 +259,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C4">
-        <v>0.13826259970664978</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D4"/>
     </row>
@@ -271,10 +271,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>564</v>
+        <v>499</v>
       </c>
       <c r="C5">
-        <v>0.18700265884399414</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D5"/>
     </row>
@@ -283,10 +283,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C6">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D6"/>
     </row>
@@ -295,10 +295,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="C7">
-        <v>0.18766577541828156</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D7"/>
     </row>
@@ -307,10 +307,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C8">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D8"/>
     </row>
@@ -319,10 +319,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>826</v>
+        <v>751</v>
       </c>
       <c r="C9">
-        <v>0.27387267351150513</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D9"/>
     </row>
@@ -331,10 +331,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C10">
-        <v>0.28779840469360352</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D10"/>
     </row>
@@ -343,10 +343,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.31233420968055725</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -355,10 +355,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1133</v>
+        <v>1011</v>
       </c>
       <c r="C12">
-        <v>0.37566313147544861</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D12"/>
     </row>
@@ -367,10 +367,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C13">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D13"/>
     </row>
@@ -379,10 +379,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C14">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D14"/>
     </row>
@@ -391,10 +391,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C15">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D15"/>
     </row>
@@ -403,10 +403,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2000</v>
+        <v>1838</v>
       </c>
       <c r="C16">
-        <v>0.66312998533248901</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D16"/>
     </row>
@@ -415,10 +415,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2217</v>
+        <v>2008</v>
       </c>
       <c r="C17">
-        <v>0.73507958650588989</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D17"/>
     </row>
@@ -427,10 +427,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2330</v>
+        <v>2226</v>
       </c>
       <c r="C18">
-        <v>0.77254641056060791</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D18"/>
     </row>
